--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tata\JOKI\Joki Feri UPB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5325B146-366A-4491-86A8-282D42E4E5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F017B0-57C5-44B7-B1D1-DFAD0912443C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{EDADA4F5-95FE-4AD0-8BAD-FC13AD26DD81}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" xr2:uid="{EDADA4F5-95FE-4AD0-8BAD-FC13AD26DD81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -50,16 +39,16 @@
     <t>SPAREPARTS</t>
   </si>
   <si>
-    <t>PT Roki</t>
-  </si>
-  <si>
     <t>SP007</t>
   </si>
   <si>
     <t>FDR</t>
   </si>
   <si>
-    <t>PT Mikuni</t>
+    <t>PT Kytaco Indonesia</t>
+  </si>
+  <si>
+    <t>PT Kayaba Indonesia</t>
   </si>
 </sst>
 </file>
@@ -84,27 +73,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -113,7 +87,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +405,13 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -459,15 +436,15 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>150000</v>
